--- a/01-Images/DRD.xlsx
+++ b/01-Images/DRD.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Component</t>
   </si>
@@ -102,8 +102,105 @@
     </r>
   </si>
   <si>
-    <t>It represents the static information used to determine the decision result.
-It is a reusable function with one or more decision elements</t>
+    <r>
+      <t xml:space="preserve">It represents the static information used to determine the decision result.
+It is a reusable function with one or more decision elements.
+Kogito support three languages to write functions
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEEL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Friendly Enough Expression Language)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: This is similar to excel that can be used by BA's to write business logic without help of developers
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JAVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Can be used to call existing library that is already created
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PMML (Predictive Model Markup Language)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  It is an XML-based predictive model interchange format and used to make decision based on Machine Learning</t>
+    </r>
+  </si>
+  <si>
+    <t>Knowledge source</t>
+  </si>
+  <si>
+    <t>It represents the real-world factors rather than executable business rules.
+Knowledge source might be company policy, person/team responsible for defining the logic</t>
   </si>
 </sst>
 </file>
@@ -264,13 +361,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1112724</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
+      <xdr:rowOff>628650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -294,7 +391,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8000999" y="1054100"/>
+          <a:off x="8299449" y="996950"/>
           <a:ext cx="1055575" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -638,7 +735,7 @@
   <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,7 +767,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:4" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="116" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -688,9 +785,13 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="3"/>
-      <c r="C6" s="5"/>
+    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">

--- a/01-Images/DRD.xlsx
+++ b/01-Images/DRD.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Component</t>
   </si>
@@ -70,7 +70,56 @@
     </r>
   </si>
   <si>
-    <t>Business knowledge model</t>
+    <t>Knowledge source</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>Information Requirements</t>
+  </si>
+  <si>
+    <t>Knowledge Requirement</t>
+  </si>
+  <si>
+    <r>
+      <t>Business Knowledge Model
+                   (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BKM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Decision Service</t>
+  </si>
+  <si>
+    <t>Authority Requirement</t>
+  </si>
+  <si>
+    <t>It represents the information derived from authoritative sources.
+It represents the real-world factors rather than executable business rules.
+It is used to link a Decision or BKM to some authority.
+Knowledge source might be company policy, person/team responsible for defining the logic.
+Knowledge source has no execution semantics and is ignored by the DMN engine.</t>
   </si>
   <si>
     <r>
@@ -98,14 +147,15 @@
       <t xml:space="preserve"> evaluation.
 A DRD can have more than one Decisions.
 Each Decisions will have evaluation based on input provided.
-A Decisions may be evaluated from one or more input/business knowledge model</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It represents the static information used to determine the decision result.
-It is a reusable function with one or more decision elements.
-Kogito support three languages to write functions
+A Decisions may be evaluated from one or more input/business knowledge model.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It represents the reusable logic that can be used to determine the decision result.
+It is a function with one or more decision elements/parameters.
+It can be invoked by multiple decisions nodes with their own inputs to the BKM parameters.
+Kogito support three languages to write functions:
 - </t>
     </r>
     <r>
@@ -148,7 +198,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: This is similar to excel that can be used by BA's to write business logic without help of developers
+      <t xml:space="preserve">: This is similar to excel that can be used by BA's to write business logic without help of developers.
 - </t>
     </r>
     <r>
@@ -170,7 +220,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: Can be used to call existing library that is already created
+      <t xml:space="preserve">: Can be used to call existing library that is already created.
 - </t>
     </r>
     <r>
@@ -192,15 +242,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:  It is an XML-based predictive model interchange format and used to make decision based on Machine Learning</t>
-    </r>
-  </si>
-  <si>
-    <t>Knowledge source</t>
-  </si>
-  <si>
-    <t>It represents the real-world factors rather than executable business rules.
-Knowledge source might be company policy, person/team responsible for defining the logic</t>
+      <t>:  It is an XML-based predictive model interchange format and used to make decision based on Machine Learning.</t>
+    </r>
+  </si>
+  <si>
+    <t>Text Annotations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is used to enclosing a group of decision nodes intended to be executed as an atomic unit.
+Decisions above the line are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Output decisions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Decisions below the line are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encapsulated decisions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Input data will be always outside the Decision service shape.
+Like BKMs, decision services are decision logic modelled as a function, invoked by passing in values and receiving back values of the output decisions.
+A decision service can be invoked from an external application or a BPMN business process.</t>
+    </r>
+  </si>
+  <si>
+    <t>It represents a note associated with an input data node, decision node, business knowledge model, or knowledge source.</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>The arrow is drawn in the direction of information flow.
+It is used to represent static knowledge necessary for decision making.
+It is used from BKM/Decision Service to Decision/BKM node.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The arrow is drawn in the direction of information flow.
+It is used to indicate information data source from to input decision data. 
+It is used from Input Data/Decision to Decision node </t>
+  </si>
+  <si>
+    <t>It is used to represent the source of Knowledge.
+It is used from Input Data/Knowledge Source to Knowledge Source/Decision/BKM node.</t>
+  </si>
+  <si>
+    <t>It is used from Input Data/Knowledge Source/BKM/Decision/Decision Service to Text Notation node.</t>
   </si>
 </sst>
 </file>
@@ -271,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -281,6 +402,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,6 +573,396 @@
         <a:xfrm>
           <a:off x="8331200" y="1898650"/>
           <a:ext cx="1028700" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>577850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="dmn knowledge source node"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8331200" y="3346450"/>
+          <a:ext cx="1022350" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>660400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="dmn decision service node"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8299450" y="4464050"/>
+          <a:ext cx="1085850" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="dmn annotation node"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8293100" y="5734050"/>
+          <a:ext cx="1041400" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="dmn info connector"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6705600" y="742950"/>
+          <a:ext cx="723900" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="dmn association connector"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6661150" y="1492250"/>
+          <a:ext cx="704850" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="dmn knowledge connector"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6654800" y="1136650"/>
+          <a:ext cx="723900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>831850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="dmn authority connector"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6642100" y="1314450"/>
+          <a:ext cx="762000" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -767,12 +1282,12 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+    <row r="4" spans="2:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -781,78 +1296,36 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
+    <row r="7" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
+    <row r="8" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -863,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -871,9 +1344,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C9"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F12"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/01-Images/DRD.xlsx
+++ b/01-Images/DRD.xlsx
@@ -321,7 +321,8 @@
 It is used from Input Data/Knowledge Source to Knowledge Source/Decision/BKM node.</t>
   </si>
   <si>
-    <t>It is used from Input Data/Knowledge Source/BKM/Decision/Decision Service to Text Notation node.</t>
+    <t>It is used to connect Text Notation to DRD Components
+It is used from Input Data/Knowledge Source/BKM/Decision/Decision Service to Text Notation node.</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1251,7 @@
   <dimension ref="B2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1318,7 +1319,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1339,7 +1340,7 @@
   <dimension ref="B3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,7 +1390,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
